--- a/biology/Botanique/Carduus_pycnocephalus/Carduus_pycnocephalus.xlsx
+++ b/biology/Botanique/Carduus_pycnocephalus/Carduus_pycnocephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carduus pycnocephalus, le Chardon à capitules denses est une espèce de plantes à fleurs du genre Carduus et de la famille des Asteraceae. Originaire du pourtour méditerranéen, de l'Europe centrale et du Caucase, c'est une espèce introduite dans d'autres régions du monde où elle est devenue envahissante.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante thérophyte annuelle d'une taille de 20 cm à 2 m, ses tiges sont parsemées de piquants. Elle croit en rosette d'un diamètre de 25 cm à 36 cm dont la base est constituée de 5 à 10 feuilles de 10 cm à 15 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante thérophyte annuelle d'une taille de 20 cm à 2 m, ses tiges sont parsemées de piquants. Elle croit en rosette d'un diamètre de 25 cm à 36 cm dont la base est constituée de 5 à 10 feuilles de 10 cm à 15 cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (6 octobre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (6 octobre 2014) :
 sous-espèce Carduus pycnocephalus subsp. albidus (M.Bieb.) Kazmi
 sous-espèce Carduus pycnocephalus subsp. cinereus (M.Bieb.) P.H.Davis
 sous-espèce Carduus pycnocephalus subsp. intermedius (Lojac.) Giardina &amp; Raimondo
